--- a/backend/my_selected_milestones.xlsx
+++ b/backend/my_selected_milestones.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milestone 1</t>
+          <t>Milestone 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-15</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milestone 2</t>
+          <t>Milestone 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-15</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-01-15</t>
         </is>
       </c>
     </row>
